--- a/biology/Zoologie/Canard_branchu/Canard_branchu.xlsx
+++ b/biology/Zoologie/Canard_branchu/Canard_branchu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aix sponsa
 Le Canard carolin (Aix sponsa) ou Canard branchu est l'une des deux espèces du genre Aix. Il doit son nom à la Caroline, États des États-Unis où les premiers spécimens furent capturés.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le canard carolin mesure environ les trois-quarts de la taille d'un canard colvert, soit environ 50 cm pour une envergure de 75 cm. Le mâle a un plumage vivement coloré qui fait que l'espèce est souvent détenue en captivité, la femelle est, quant à elle, beaucoup plus terne. Chez l'adulte, la masse avoisine les 850 g.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre principalement sur les côtes est et ouest des États-Unis, mais aussi au Mexique et jusqu'au Canada en période de reproduction.
 </t>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau fréquente les zones boisées le long des rivières, les lacs et marais de son aire de répartition. Première mention de cette espèce au Maroc a été faite en 2018[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau fréquente les zones boisées le long des rivières, les lacs et marais de son aire de répartition. Première mention de cette espèce au Maroc a été faite en 2018
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le canard carolin se nourrit dans son milieu naturel de plantes aquatiques, de graines et fruits ainsi que d'insectes. En captivité, souvent maintenu avec d'autres espèces ayant de légères différences alimentaires, ou même en spécifique, il se nourrit et s’accommodera également de salades, et d'un certain nombre d'autres légumes simples communs, souvent fournis en compensation des plantes et autres mets rencontrés dans son milieu.
 </t>
@@ -636,13 +656,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mâles arborent tout au long de l'année un plumage terne presque semblable à celui des femelles. Mais quand vient la période de reproduction, à la saison des amours, le canard carolin se pare d'un plumage somptueusement coloré. Ce magnifique oiseau se reproduit dans les régions de l'Ontario, du Québec et du Nouveau-Brunswick. 
-Nidification
-Cette espèce a besoin d'arbres pour nidifier puisque les œufs sont pondus en milieu naturel dans une cavité d'arbre. Le nid est souvent situé à proximité de l'eau afin de permettre aux canetons d'y sauter dès leur 2e jour pour rejoindre leur mère qui les appelle d'en bas. En captivité un simple nichoir artificiel adapté à sa taille et semblable à ce qu'il rencontre dans son milieu sera adopté sans trop de difficulté.
-Couvées
-La femelle pond généralement entre neuf et une quinzaine d’œufs. La couvée varie entre 28 et 30 jours.
 </t>
         </is>
       </c>
@@ -668,12 +686,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Population et menaces</t>
+          <t>Reproduction</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">La pose de nichoirs a permis au canard carolin de voir ses populations se développer aux États-Unis après une chasse abusive au début du XXe siècle. En cause, la récolte de ses plumes pour la confection de fausse mouche pour la pêche et de chapeau. L'espèce a été introduite dans divers pays d'Europe mais ne s'est pas aujourd'hui (2014) aussi bien acclimatée que par exemple le Canard mandarin.
+          <t>Nidification</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a besoin d'arbres pour nidifier puisque les œufs sont pondus en milieu naturel dans une cavité d'arbre. Le nid est souvent situé à proximité de l'eau afin de permettre aux canetons d'y sauter dès leur 2e jour pour rejoindre leur mère qui les appelle d'en bas. En captivité un simple nichoir artificiel adapté à sa taille et semblable à ce qu'il rencontre dans son milieu sera adopté sans trop de difficulté.
 </t>
         </is>
       </c>
@@ -699,10 +723,82 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Couvées</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle pond généralement entre neuf et une quinzaine d’œufs. La couvée varie entre 28 et 30 jours.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Canard_branchu</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canard_branchu</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Population et menaces</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pose de nichoirs a permis au canard carolin de voir ses populations se développer aux États-Unis après une chasse abusive au début du XXe siècle. En cause, la récolte de ses plumes pour la confection de fausse mouche pour la pêche et de chapeau. L'espèce a été introduite dans divers pays d'Europe mais ne s'est pas aujourd'hui (2014) aussi bien acclimatée que par exemple le Canard mandarin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Canard_branchu</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canard_branchu</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Élevage et sélection</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Un certain nombre de variétés de sélection sont blondes et/ou blanches et sont considérées comme domestiques.
 </t>
